--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422667.6614381174</v>
+        <v>420780.0799217151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>176.4189250636852</v>
+        <v>168.2769723839556</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>147.3596012393432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>85.87170836083672</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>245.6477821180768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>151.1318884952444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8167699816754</v>
+        <v>86.11283245544973</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>51.33268671918096</v>
       </c>
       <c r="W8" t="n">
-        <v>56.91631681395855</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>86.88462298447473</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.525532102718746</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002171</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>39.55960582285816</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>13.18186169702619</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249383</v>
       </c>
       <c r="X19" t="n">
-        <v>113.1999233045081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>158.7499014426883</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>24.29718497126836</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>265.2692612118953</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>236.9147353558834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>153.9948005737743</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>188.4590648403941</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612117642</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>94.78762688064739</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857304</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378942</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692859</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764.7444956504007</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C2" t="n">
-        <v>764.7444956504007</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="D2" t="n">
-        <v>406.4787970436502</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="E2" t="n">
-        <v>406.4787970436502</v>
+        <v>648.8290304531545</v>
       </c>
       <c r="F2" t="n">
-        <v>399.5332962944468</v>
+        <v>237.8431256635469</v>
       </c>
       <c r="G2" t="n">
-        <v>385.6098922330377</v>
+        <v>223.9197216021378</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.7444956504007</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>782.7327506358142</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491377</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491377</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1763.586886263858</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>224.6669506791649</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E7" t="n">
-        <v>224.6669506791649</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="F7" t="n">
-        <v>224.6669506791649</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2645.297892311979</v>
       </c>
       <c r="W8" t="n">
-        <v>2463.480374227384</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="X8" t="n">
-        <v>2463.480374227384</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="Y8" t="n">
-        <v>2073.341042251573</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>640.3667387675712</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>640.3667387675712</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>640.3667387675712</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>640.3667387675712</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>640.3667387675712</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W10" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1028.859951698067</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273988</v>
+        <v>731.3177283550791</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904381</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X13" t="n">
-        <v>326.6213191924207</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.8287400488906</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851239</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1458.957072757036</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="U16" t="n">
-        <v>1174.606145220102</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V16" t="n">
-        <v>1174.606145220102</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W16" t="n">
-        <v>885.1889751831412</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X16" t="n">
-        <v>657.1994242851239</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.1994242851239</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.241689650765</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.392413140465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.392413140465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240055</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>582.241689650765</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>582.241689650765</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.3735683412847</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150545</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150545</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.0220331715244</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>698.8634468392138</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1006.183580119176</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.046207783208</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>581.2185435662827</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6151,46 +6151,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570741</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W25" t="n">
-        <v>581.2185435662827</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X25" t="n">
-        <v>581.2185435662827</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y25" t="n">
-        <v>581.2185435662827</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.6573425680691</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>399.6573425680691</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>399.6573425680691</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>399.6573425680691</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>252.7673950701589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333287</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W28" t="n">
-        <v>809.295358296326</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X28" t="n">
-        <v>581.3058073983087</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y28" t="n">
-        <v>581.3058073983087</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110233</v>
+        <v>637.6995017749896</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644872</v>
+        <v>637.6995017749896</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335222</v>
+        <v>543.343727644025</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480324999</v>
+        <v>451.1914993430025</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159603</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1640.907602438973</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1407.539828933902</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1208.616206009386</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386981</v>
+        <v>974.9599012537957</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220516</v>
+        <v>802.731215637149</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598921</v>
+        <v>637.6995017749896</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103119</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,31 +6923,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525407</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649698</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7169,40 +7169,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7597,22 +7597,22 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>62.794659289832</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>165.9802687929761</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N27" t="n">
-        <v>41.75994765618401</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>189.0022427662455</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>403.7628319612147</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.8749102765741</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>43.65987261462419</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>157.9680363606588</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518777</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>70.40474658093464</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>273.0554907015512</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>48.84084321165273</v>
       </c>
       <c r="X19" t="n">
-        <v>112.5097320845291</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.496919655939516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>262.2258133653227</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>20.96809118668205</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>49.60826298070759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>12.49876788960324</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>30.1255885117007</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227029</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.55667754918491</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.321609488513786e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923206</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
         <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="G2" t="n">
+        <v>332374.7007770524</v>
+      </c>
+      <c r="H2" t="n">
+        <v>332374.7007770526</v>
+      </c>
+      <c r="I2" t="n">
         <v>332374.7007770527</v>
       </c>
-      <c r="H2" t="n">
-        <v>332374.7007770525</v>
-      </c>
-      <c r="I2" t="n">
-        <v>332374.7007770524</v>
-      </c>
       <c r="J2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434799</v>
+        <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284586</v>
+        <v>44162.60530284555</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086702</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687069</v>
-      </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819111</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489517.0728721577</v>
+        <v>-489517.0728721579</v>
       </c>
       <c r="C6" t="n">
+        <v>100450.8063423867</v>
+      </c>
+      <c r="D6" t="n">
         <v>100450.8063423866</v>
       </c>
-      <c r="D6" t="n">
-        <v>100450.8063423865</v>
-      </c>
       <c r="E6" t="n">
-        <v>-306947.2692354306</v>
+        <v>-307044.728361403</v>
       </c>
       <c r="F6" t="n">
-        <v>218212.7672414652</v>
+        <v>218115.308115493</v>
       </c>
       <c r="G6" t="n">
-        <v>218212.7672414653</v>
+        <v>218115.3081154929</v>
       </c>
       <c r="H6" t="n">
-        <v>218212.7672414652</v>
+        <v>218115.3081154931</v>
       </c>
       <c r="I6" t="n">
-        <v>218212.7672414651</v>
+        <v>218115.3081154931</v>
       </c>
       <c r="J6" t="n">
-        <v>41789.54804887212</v>
+        <v>41692.08892290013</v>
       </c>
       <c r="K6" t="n">
-        <v>164668.7728093439</v>
+        <v>164650.2790714099</v>
       </c>
       <c r="L6" t="n">
-        <v>196291.3447432372</v>
+        <v>196291.3447432369</v>
       </c>
       <c r="M6" t="n">
-        <v>71833.2363102667</v>
+        <v>71833.23631026647</v>
       </c>
       <c r="N6" t="n">
         <v>206634.2515441038</v>
       </c>
       <c r="O6" t="n">
-        <v>206634.251544104</v>
+        <v>206634.2515441039</v>
       </c>
       <c r="P6" t="n">
-        <v>162471.6462412585</v>
+        <v>162471.6462412584</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>147.5038477006719</v>
+        <v>155.6458003804015</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>19.88721985928461</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>139.1633970972476</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>168.1363879027182</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>218.5992121832246</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49303227737549</v>
+        <v>81.19696980360118</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>276.4195717509539</v>
       </c>
       <c r="W8" t="n">
-        <v>292.3246519034545</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>59.7805689956831</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-9.373685571987393e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>373.2190363402982</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>492.0670153019459</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>415.2379737490004</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36677,13 +36677,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>374.9545210541968</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36695,7 +36695,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>471.3659450073538</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>693.6972596887376</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>714.187209011681</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.8879430616483</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>354.0842496650906</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
